--- a/dataset_notebook.xlsx
+++ b/dataset_notebook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdy-Aditya\Documents\GitHub\CreditRisk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdy\Documents\GitHub\CreditRisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCC1678-55FE-4F5C-90EA-966525F6C70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C6BF4-BA5C-42CF-BB29-FEC2DE49FB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D582AE97-6EFB-4F8C-8054-C5C2F1FE83FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D582AE97-6EFB-4F8C-8054-C5C2F1FE83FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\'General\'"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -609,17 +609,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,18 +941,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A430A7-F736-4866-9401-7CD144BB4A50}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.140625" customWidth="1"/>
+    <col min="1" max="1" width="59.1796875" customWidth="1"/>
     <col min="2" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CHAR(39)&amp;B2&amp;CHAR(39)&amp;CHAR(44)</f>
         <v>'grade_A',</v>
@@ -969,14 +969,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CHAR(39)&amp;D2&amp;CHAR(39)</f>
-        <v>'grade_G'</v>
+        <f>CHAR(39)&amp;D2&amp;CHAR(39)&amp;CHAR(44)</f>
+        <v>'grade_G',</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A9" si="0">CHAR(39)&amp;B3&amp;CHAR(39)&amp;CHAR(44)</f>
         <v>'grade_B',</v>
@@ -992,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>'grade_C',</v>
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>'grade_D',</v>
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>'grade_E',</v>
@@ -1040,7 +1040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>'grade_F',</v>
@@ -1056,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>'ownership_MORTGAGE',</v>
@@ -1072,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>'ownership_OWN',</v>
@@ -1088,7 +1088,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" ref="A10:A41" si="2">CHAR(39)&amp;B10&amp;CHAR(39)&amp;CHAR(44)</f>
         <v>'adrr_state:CA',</v>
@@ -1104,7 +1104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:KY_VA',</v>
@@ -1120,7 +1120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:NY',</v>
@@ -1136,7 +1136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:NC_UT',</v>
@@ -1152,7 +1152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:MD_NJ_LA_OK_MI_TN',</v>
@@ -1168,7 +1168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:MN_AZ_DE_PA_AR_OH',</v>
@@ -1184,7 +1184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:WA_MA_IN_GA_RI_OR',</v>
@@ -1200,7 +1200,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:WI_SD_CT',</v>
@@ -1216,7 +1216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:TX',</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:KS_IL_MT',</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:CO_SC_VT_AK',</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>'adrr_state:MS_NH_WY_WV_DC_ME_ID',</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>'purpose:renewable_energy_other_house',</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>'purpose:medical_wedding_vacation',</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>'purpose:debt_consolidation',</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>'purpose:home_improvement_major_purchase_car',</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>'purpose:credit_card',</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>'ver_status_Source Verified',</v>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>'ver_status_Not Verified',</v>
@@ -1327,7 +1327,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>'list_status_w',</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>'term:60',</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>'mths_since_issue_date:200-240',</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>'mths_since_issue_date:240-282',</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>'mths_since_issue_date:282-314',</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>'mths_since_issue_date:314-334',</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>'mths_since_issue_date:334-488',</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>'mths_since_issue_date:&gt;=488',</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>'int_rate:8-10',</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>'int_rate:10-14',</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>'int_rate:14-19',</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v>'int_rate:&gt;=19',</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>'mths_since_earliest_cr_line:190-293',</v>
@@ -1457,9 +1457,9 @@
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f t="shared" ref="A42:A73" si="3">CHAR(39)&amp;B42&amp;CHAR(39)&amp;CHAR(44)</f>
+        <f t="shared" ref="A42:A64" si="3">CHAR(39)&amp;B42&amp;CHAR(39)&amp;CHAR(44)</f>
         <v>'mths_since_earliest_cr_line:293-344',</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="3"/>
         <v>'mths_since_earliest_cr_line:344-498',</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="3"/>
         <v>'mths_since_earliest_cr_line:&gt;=498',</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="3"/>
         <v>'open_acc:12-25',</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="3"/>
         <v>'open_acc:&gt;=25',</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="3"/>
         <v>'total_acc:13-30',</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="3"/>
         <v>'total_acc:30-51',</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="3"/>
         <v>'total_acc:51-66',</v>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="3"/>
         <v>'total_acc:&gt;=66',</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:20k-30k',</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:30k-40k',</v>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:40k-50k',</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:50k-60k',</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:60k-70k',</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:70k-80k',</v>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:80k-90k',</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:90k-100k',</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:100k-120k',</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:120k-140k',</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f t="shared" si="3"/>
         <v>'annual_inc:&gt;140k',</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f t="shared" si="3"/>
         <v>'mths_since_last_delinq:33-60',</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f t="shared" si="3"/>
         <v>'mths_since_last_delinq:&gt;60',</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f t="shared" si="3"/>
         <v>'dti:8-15',</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f t="shared" ref="A65:A69" si="4">CHAR(39)&amp;B65&amp;CHAR(39)&amp;CHAR(44)</f>
         <v>'dti:15-20',</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f t="shared" si="4"/>
         <v>'dti:&gt;=21',</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f t="shared" si="4"/>
         <v>'mths_since_last_record:2-27',</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f t="shared" si="4"/>
         <v>'mths_since_last_record:27-60',</v>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f t="shared" si="4"/>
         <v>'mths_since_last_record:60-88',</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>CHAR(39)&amp;B70&amp;CHAR(39)</f>
         <v>'mths_since_last_record:&gt;=88'</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C71" s="5"/>
     </row>
   </sheetData>
@@ -1764,14 +1764,14 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6">
         <v>0</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>5.1259320000000003E-58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>5.2272500000000003E-61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>7.6453040000000005E-54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>1.6955809999999999E-30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>7.756984E-13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>8179.65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>5.9071819999999997E-17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>6.9396240000000004E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>22794.63</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>75222.45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>341.28039999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>16674.62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>84.224879999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>5.1167629999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>4.3267080000000003E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>9.0693630000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>4.9923459999999999E-12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1.349567E-11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>4.2189929999999998E-15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>5.965651E-15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>1.6274980000000001E-32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1.6637900000000001E-19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>7.5292869999999995E-64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2.2255330000000001E-44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>7.1833910000000007E-83</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>2.3097999999999999E-27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>5.3709830000000001E-9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>7.1841850000000003E-219</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>5181.085</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>47147.78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>381904.9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>696308.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>307286.40000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>126041.7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>867488.1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>2.4027570000000002E-15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>5.1713639999999998E-66</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>4.756118E-134</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>1.0107669999999999E-170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>730.61540000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>13986.63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>400761.4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>733719.3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>89493.96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>329918</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>789450.3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>774504.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>297450.3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>23584.32</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1.667277E-20</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>2.4553290000000001E-22</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>1.2534469999999999E-9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>7576.4809999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>7456.4219999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>50869.61</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>86.995670000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>977.95590000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>1.9241399999999999E-8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>6.6251570000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>2.277908E-12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>679621.6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>552853</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>825921.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>1.391068</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>3.2869269999999998E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>75981.09</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>73095.94</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>177.15719999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
